--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>782289.6154000752</v>
+        <v>779853.9784763686</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767344</v>
+        <v>603248.4937673422</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>24.6214982250919</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>135.0352507668772</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>171.290008215027</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620237</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>111.9684348866495</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>407.8895948559967</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>32.85881373760815</v>
       </c>
       <c r="W7" t="n">
-        <v>239.0480076404111</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>205.5146946421451</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>270.5139490778481</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>119.3268757996337</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1348,13 +1348,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>222.1526784153806</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,13 +1370,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>276.0830593329813</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>352.1031571484107</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238032</v>
+        <v>22.60777203238013</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114094</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458126</v>
+        <v>87.05432226458123</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035252</v>
+        <v>9.753166794035167</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>123.2535382468619</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>124.1004521009535</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146332</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1585,7 +1585,7 @@
         <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
-        <v>160.1969012514609</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337184</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001829</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>7.018581172449074</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>87.56163230992577</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701354</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>137.3021949834102</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>20.92847288552792</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>21.63824106825009</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503962</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881291</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>28.75188085811982</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>19.9155582618926</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890354</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>75.12653431054679</v>
+        <v>121.8000472740345</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465671</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>102.7111628144454</v>
+        <v>20.43112068613147</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229309</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3032,13 +3032,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206826</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417108</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G34" t="n">
-        <v>52.57516893522893</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,10 +3241,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238293</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673025</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187869</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3670,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0.8253826161911274</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,10 +3715,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>105.7906564314229</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>95.12712756824189</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>51.89407438975487</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1575.942324366272</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C2" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912088</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>3078.915909937399</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V2" t="n">
-        <v>3078.915909937399</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W2" t="n">
-        <v>2726.147254667285</v>
+        <v>2435.796531379708</v>
       </c>
       <c r="X2" t="n">
-        <v>2352.681496406205</v>
+        <v>2062.330773118628</v>
       </c>
       <c r="Y2" t="n">
-        <v>1962.542164430393</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4413,10 +4413,10 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4428,7 +4428,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125857</v>
@@ -4437,16 +4437,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1754.274337770284</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1465.171470895927</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1210.48698269004</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>921.0698126530797</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>693.0802617550623</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y4" t="n">
-        <v>693.0802617550623</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.723851760223</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1569.10175931188</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1210.836060705129</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>825.047808106885</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>818.1023073576815</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4595,22 +4595,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.097597267229</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W5" t="n">
-        <v>2513.328941997115</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X5" t="n">
-        <v>2139.863183736035</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y5" t="n">
-        <v>1749.723851760223</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4723,16 +4723,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1638.191681214136</v>
+        <v>1101.718003420938</v>
       </c>
       <c r="W7" t="n">
-        <v>1396.729047233923</v>
+        <v>812.300833383977</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>584.3112824859596</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>363.5187033424295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2255.174438931364</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1886.211921990952</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1527.946223384201</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1142.157970785957</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>731.1720659963496</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>316.0996158413461</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2688.538263200155</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2335.769607930041</v>
       </c>
       <c r="X8" t="n">
-        <v>2641.774278995485</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y8" t="n">
-        <v>2641.774278995485</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,13 +4884,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>793.5839474470786</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.908724368016</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>1134.908724368016</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="Y10" t="n">
-        <v>914.1161452244863</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1887.714727835672</v>
+        <v>1535.258832689356</v>
       </c>
       <c r="C11" t="n">
-        <v>1518.75221089526</v>
+        <v>1256.387055585335</v>
       </c>
       <c r="D11" t="n">
-        <v>1160.48651228851</v>
+        <v>898.1213569785843</v>
       </c>
       <c r="E11" t="n">
-        <v>804.8267575931453</v>
+        <v>512.33310438034</v>
       </c>
       <c r="F11" t="n">
-        <v>393.8408528035378</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035378</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907326</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386829</v>
+        <v>308.7333971386838</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420317</v>
+        <v>704.5155104420323</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301224</v>
+        <v>1232.419981301226</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878109</v>
+        <v>1851.484858878111</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765424</v>
+        <v>2485.180661765427</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.2263776871</v>
+        <v>3070.226377687105</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856282</v>
+        <v>3535.048359856287</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.93756388224</v>
+        <v>3835.937563882246</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234591</v>
+        <v>3925.553311234597</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234591</v>
+        <v>3826.588132455666</v>
       </c>
       <c r="T11" t="n">
-        <v>3721.75120075037</v>
+        <v>3622.786021971446</v>
       </c>
       <c r="U11" t="n">
-        <v>3721.75120075037</v>
+        <v>3369.295305604054</v>
       </c>
       <c r="V11" t="n">
-        <v>3390.688313406799</v>
+        <v>3038.232418260483</v>
       </c>
       <c r="W11" t="n">
-        <v>3037.919658136685</v>
+        <v>2685.463762990369</v>
       </c>
       <c r="X11" t="n">
-        <v>2664.453899875605</v>
+        <v>2311.998004729289</v>
       </c>
       <c r="Y11" t="n">
-        <v>2274.314567899793</v>
+        <v>1921.858672753478</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503046</v>
+        <v>88.36274985503049</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792128</v>
+        <v>196.8120623792131</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376501</v>
+        <v>477.1621322376509</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649596</v>
+        <v>900.449939664961</v>
       </c>
       <c r="M12" t="n">
-        <v>1413.763713908849</v>
+        <v>1413.763713908851</v>
       </c>
       <c r="N12" t="n">
-        <v>1955.072021259915</v>
+        <v>1955.072021259918</v>
       </c>
       <c r="O12" t="n">
-        <v>2428.043574125664</v>
+        <v>1991.670362601622</v>
       </c>
       <c r="P12" t="n">
-        <v>2558.889669173201</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>376.5407992194205</v>
+        <v>203.865058245857</v>
       </c>
       <c r="C13" t="n">
-        <v>376.5407992194206</v>
+        <v>203.865058245857</v>
       </c>
       <c r="D13" t="n">
-        <v>226.4241598070848</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="E13" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="F13" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469182</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600401</v>
+        <v>139.0818334600402</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457703</v>
+        <v>368.4550473457707</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888914</v>
+        <v>717.5002252888922</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.908548779222</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542993</v>
+        <v>1470.753784542994</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715848</v>
+        <v>1800.96773471585</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.002133082523</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551104</v>
+        <v>2155.909043551107</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551104</v>
+        <v>2076.102739014275</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906987</v>
+        <v>1888.302075370158</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.294322457033</v>
+        <v>1667.488017920203</v>
       </c>
       <c r="U13" t="n">
-        <v>1458.203615897321</v>
+        <v>1378.397311360492</v>
       </c>
       <c r="V13" t="n">
-        <v>1296.388564128168</v>
+        <v>1123.712823154605</v>
       </c>
       <c r="W13" t="n">
-        <v>1006.971394091208</v>
+        <v>834.2956531176442</v>
       </c>
       <c r="X13" t="n">
-        <v>778.9818431931903</v>
+        <v>606.3061022196268</v>
       </c>
       <c r="Y13" t="n">
-        <v>558.1892640496602</v>
+        <v>385.5135230760967</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5261,25 +5261,25 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128758</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L14" t="n">
         <v>1461.45766301865</v>
@@ -5294,34 +5294,34 @@
         <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750196</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608053</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3203657894393</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L15" t="n">
-        <v>914.0526986331905</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>1506.071052885318</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="N15" t="n">
-        <v>2128.167016284654</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>561.9183350635719</v>
+        <v>561.9183350635722</v>
       </c>
       <c r="C16" t="n">
-        <v>561.9183350635719</v>
+        <v>554.8288591318053</v>
       </c>
       <c r="D16" t="n">
-        <v>411.8016956512361</v>
+        <v>554.8288591318053</v>
       </c>
       <c r="E16" t="n">
-        <v>263.8886020688431</v>
+        <v>406.9157655494122</v>
       </c>
       <c r="F16" t="n">
-        <v>263.8886020688429</v>
+        <v>260.0258180515018</v>
       </c>
       <c r="G16" t="n">
-        <v>263.8886020688429</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693323</v>
+        <v>819.1842911693325</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
@@ -5476,10 +5476,10 @@
         <v>1192.348929935359</v>
       </c>
       <c r="X16" t="n">
-        <v>964.3593790373418</v>
+        <v>964.359379037342</v>
       </c>
       <c r="Y16" t="n">
-        <v>743.5667998938117</v>
+        <v>743.5667998938119</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5516,7 +5516,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851665</v>
+        <v>580.8993044876686</v>
       </c>
       <c r="C19" t="n">
-        <v>558.019349243338</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310022</v>
+        <v>261.8464821474258</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310022</v>
+        <v>261.8464821474258</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330918</v>
+        <v>114.9565346495156</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5677,7 +5677,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832662</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855603</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199801</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993914</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058936</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154062</v>
+        <v>762.5477693179083</v>
       </c>
     </row>
     <row r="20">
@@ -5744,28 +5744,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.899304487669</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278209</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="D22" t="n">
-        <v>408.9258559154852</v>
+        <v>363.7369613277349</v>
       </c>
       <c r="E22" t="n">
-        <v>261.012762333092</v>
+        <v>215.8238677453418</v>
       </c>
       <c r="F22" t="n">
-        <v>261.012762333092</v>
+        <v>215.8238677453418</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5911,7 +5911,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797745</v>
@@ -5923,37 +5923,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168605</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.853600740071</v>
+        <v>580.8993044876706</v>
       </c>
       <c r="C25" t="n">
-        <v>513.853600740071</v>
+        <v>411.9631215597637</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.846482147428</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>113.9333885650349</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138409</v>
+        <v>983.3403484614405</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703107</v>
+        <v>762.5477693179104</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6257,16 +6257,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851669</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926954</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803596</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,19 +6385,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154066</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="29">
@@ -6458,31 +6458,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.3929232910534</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835328</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>697.527634571197</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888039</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1871.240688199801</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1353.833967264823</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.041388121293</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,10 +6680,10 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6704,22 +6704,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>984.5772922261123</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C34" t="n">
-        <v>815.6411092982054</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D34" t="n">
-        <v>665.5244698858696</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E34" t="n">
-        <v>517.6113763034765</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F34" t="n">
-        <v>370.7214288055661</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6862,7 +6862,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.77659230462</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.35942226766</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369642</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.5772922261123</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362687</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764187997</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908929</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908929</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908929</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908929</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,13 +7111,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925696</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490395</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7254,22 +7254,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.7540666811321</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532253</v>
+        <v>411.9631215597626</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408896</v>
+        <v>261.8464821474267</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408896</v>
+        <v>261.8464821474267</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429793</v>
+        <v>261.8464821474267</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>94.65038286230651</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>94.65038286230651</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,13 +7333,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038353</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797754</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1870.60183158988</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1870.60183158988</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1581.184661552919</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X40" t="n">
-        <v>1353.195110654902</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y40" t="n">
-        <v>1132.402531511372</v>
+        <v>762.5477693179092</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7491,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,19 +7570,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2394.544826620911</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2211.689992275816</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2211.689992275816</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1922.614765620014</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1667.930277414127</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1378.513107377167</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1150.523556479149</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y46" t="n">
-        <v>929.7309773356194</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>89.1898324380262</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>29.82721292385111</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806772</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114104</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.51502091725887</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.7150774703404</v>
+        <v>89.71507747034033</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146341</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>91.9407420723671</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613728917</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.2915261372913</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>160.2282399261788</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>52.89235748202815</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>29.94462611521763</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>144.5956654067409</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856411</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>145.6085800303777</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>44.73700564187266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>119.8635921600925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610386</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>92.12028678808105</v>
+        <v>45.44677382459334</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>64.53565828418242</v>
+        <v>146.8157004124964</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G34" t="n">
-        <v>112.9489693570399</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462259</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>80.44045370237427</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,10 +25603,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>180.3938179578213</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>72.11969353038594</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.36835372228738</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>14.48117232036682</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>915092.5679000514</v>
+        <v>915092.5679000521</v>
       </c>
     </row>
     <row r="6">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>431046.9291787486</v>
+      </c>
+      <c r="C2" t="n">
         <v>431046.9291787487</v>
-      </c>
-      <c r="C2" t="n">
-        <v>431046.9291787486</v>
       </c>
       <c r="D2" t="n">
         <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
-        <v>386954.4379713449</v>
+        <v>386954.4379713451</v>
       </c>
       <c r="F2" t="n">
         <v>421406.880109966</v>
       </c>
       <c r="G2" t="n">
-        <v>423751.9648372531</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="H2" t="n">
-        <v>423751.9648372531</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="I2" t="n">
-        <v>423751.9648372534</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="J2" t="n">
         <v>423751.9648372533</v>
@@ -26341,19 +26341,19 @@
         <v>423751.9648372533</v>
       </c>
       <c r="L2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="M2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="N2" t="n">
+        <v>423751.964837253</v>
+      </c>
+      <c r="O2" t="n">
+        <v>423751.9648372531</v>
+      </c>
+      <c r="P2" t="n">
         <v>423751.9648372532</v>
-      </c>
-      <c r="O2" t="n">
-        <v>423751.9648372532</v>
-      </c>
-      <c r="P2" t="n">
-        <v>423751.9648372531</v>
       </c>
     </row>
     <row r="3">
@@ -26369,19 +26369,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185155</v>
+        <v>143114.1392185168</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051381</v>
+        <v>166521.3471051371</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557904</v>
+        <v>11167.23623557874</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.3285511533</v>
+        <v>37377.32855115361</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848914</v>
+        <v>43782.4065584889</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224693</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818177</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="E4" t="n">
         <v>12897.74318952439</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214708</v>
+        <v>86093.7221621472</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-1097815.656028419</v>
       </c>
       <c r="C6" t="n">
-        <v>230929.0896991738</v>
+        <v>230929.0896991737</v>
       </c>
       <c r="D6" t="n">
-        <v>230929.0896991735</v>
+        <v>230929.0896991737</v>
       </c>
       <c r="E6" t="n">
-        <v>144848.8334011579</v>
+        <v>144638.8691573119</v>
       </c>
       <c r="F6" t="n">
-        <v>141753.0729653845</v>
+        <v>141707.1679698198</v>
       </c>
       <c r="G6" t="n">
-        <v>298465.3346309364</v>
+        <v>298430.5967055013</v>
       </c>
       <c r="H6" t="n">
-        <v>309632.5708665153</v>
+        <v>309597.8329410799</v>
       </c>
       <c r="I6" t="n">
-        <v>309632.570866516</v>
+        <v>309597.83294108</v>
       </c>
       <c r="J6" t="n">
-        <v>92101.36846923827</v>
+        <v>92066.63054380257</v>
       </c>
       <c r="K6" t="n">
-        <v>309632.5708665157</v>
+        <v>309597.83294108</v>
       </c>
       <c r="L6" t="n">
-        <v>309632.5708665156</v>
+        <v>309597.83294108</v>
       </c>
       <c r="M6" t="n">
-        <v>272255.2423153623</v>
+        <v>272220.5043899263</v>
       </c>
       <c r="N6" t="n">
-        <v>265850.1643080264</v>
+        <v>265815.4263825908</v>
       </c>
       <c r="O6" t="n">
-        <v>306609.2728892909</v>
+        <v>306574.5349638552</v>
       </c>
       <c r="P6" t="n">
-        <v>309632.5708665155</v>
+        <v>309597.8329410799</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494557</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086477</v>
+        <v>981.3883278086491</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26963,19 +26963,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012574</v>
+        <v>122.3935669012585</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218299</v>
+        <v>145.870781221829</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.986872406355</v>
+        <v>149.9868724063563</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173588</v>
+        <v>178.7569625173578</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.986872406355</v>
+        <v>149.9868724063563</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173588</v>
+        <v>178.7569625173578</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.986872406355</v>
+        <v>149.9868724063563</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173588</v>
+        <v>178.7569625173578</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>358.1123434383887</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>115.9599211920248</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27540,13 +27540,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>48.25894106114217</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>253.304456884358</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.032130797456773</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>219.2788295862198</v>
       </c>
       <c r="W7" t="n">
-        <v>47.4749906961799</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>89.0930697451754</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>57.23830939228679</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>60.50510438230363</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>3.556976973656589</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-4.284679813628745e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -29259,7 +29259,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1.733724275254644e-12</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-6.341326124170543e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29439,7 +29439,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -29679,7 +29679,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -29752,13 +29752,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>6.04139853721653e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29964,7 +29964,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>-1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.256356658357846e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30405,7 +30405,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485648</v>
+        <v>4.873046301485652</v>
       </c>
       <c r="H11" t="n">
-        <v>49.9060854350899</v>
+        <v>49.90608543508994</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>187.8681175380258</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307178</v>
+        <v>413.5937135307182</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726054</v>
+        <v>619.869763472606</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216969</v>
+        <v>769.0032542216977</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857423</v>
+        <v>855.6642913857431</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898384</v>
+        <v>869.5098341898392</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294405</v>
+        <v>821.0534800294413</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615135</v>
+        <v>700.7501494615141</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895585</v>
+        <v>526.234178789559</v>
       </c>
       <c r="R11" t="n">
-        <v>306.106494735698</v>
+        <v>306.1064947356983</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>111.0445425951044</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.33176018475345</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188517</v>
+        <v>0.3898437041188521</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969422</v>
+        <v>2.607309631969424</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191521</v>
+        <v>25.18112197191523</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596475</v>
+        <v>89.76921320596483</v>
       </c>
       <c r="J12" t="n">
-        <v>246.333582378304</v>
+        <v>246.3335823783043</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202553</v>
+        <v>421.0233277202557</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256413</v>
+        <v>566.1178216256419</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845327</v>
+        <v>660.6327957845334</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147138</v>
+        <v>678.1177801147144</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431807</v>
+        <v>179.5642660017209</v>
       </c>
       <c r="P12" t="n">
-        <v>266.1421801896196</v>
+        <v>497.8817840205473</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>332.8207874071848</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533297</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697585</v>
+        <v>48.42963285697589</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.50928750780658</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190411</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236086</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.43446756737176</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691788</v>
+        <v>65.73539745691795</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>154.5417732836913</v>
       </c>
       <c r="K13" t="n">
-        <v>253.959606861974</v>
+        <v>253.9596068619743</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509174</v>
+        <v>324.9808615509178</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263708</v>
+        <v>342.6467528263711</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973093</v>
+        <v>334.4993788973096</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050058</v>
+        <v>308.9643167050061</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761895</v>
+        <v>264.3723481761897</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>183.0377103916781</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570608</v>
+        <v>98.28514988570616</v>
       </c>
       <c r="S13" t="n">
-        <v>38.0939410292961</v>
+        <v>38.09394102929614</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826901</v>
+        <v>9.33967255282691</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1192298623765139</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,43 +32069,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>428.3656332688745</v>
       </c>
       <c r="O15" t="n">
-        <v>571.4938338238242</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32309,25 +32309,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,7 +33029,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33676,7 +33676,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33974,7 +33974,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>363.5371514786841</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34211,10 +34211,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>324.9782573297445</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040315</v>
+        <v>232.5478090040319</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276249</v>
+        <v>399.7799124276254</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517096</v>
+        <v>533.2368392517105</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584696</v>
+        <v>625.3180581584704</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932476</v>
+        <v>640.0967705932483</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077537</v>
+        <v>590.9552686077545</v>
       </c>
       <c r="P11" t="n">
-        <v>469.517153706244</v>
+        <v>469.5171537062445</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.928488915109</v>
+        <v>303.9284889151095</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156593</v>
+        <v>90.52095692156621</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116374</v>
+        <v>119.4959557116376</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458963</v>
+        <v>283.1818887458967</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457672</v>
+        <v>427.5634418457677</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625144</v>
+        <v>518.498761862515</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313805</v>
+        <v>546.7760680313811</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987363</v>
+        <v>36.96802155727641</v>
       </c>
       <c r="P12" t="n">
-        <v>132.1677727752893</v>
+        <v>363.9073766062171</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.8390133211632</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936578</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701833</v>
+        <v>61.1825931670185</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360912</v>
+        <v>231.6901150360914</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112335</v>
+        <v>352.5708868112339</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882114</v>
+        <v>382.2306297882117</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765379</v>
+        <v>378.6315512765382</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190455</v>
+        <v>333.5494446190458</v>
       </c>
       <c r="P13" t="n">
-        <v>261.650907441083</v>
+        <v>261.6509074410832</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998352</v>
+        <v>96.87566713998369</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>297.0239211855412</v>
       </c>
       <c r="O15" t="n">
-        <v>428.8975893793797</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
-        <v>82.88662398579324</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,7 +36677,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37622,7 +37622,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>220.9409070342396</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37701,7 +37701,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409636</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
         <v>394.3420143191314</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
